--- a/00 Attention/data/recorddata.xlsx
+++ b/00 Attention/data/recorddata.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADA8A7EA-6698-4B66-AAA1-16C9D44ACEE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDDD4E02-A2C2-4A9D-A87B-8310672BA119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="348" yWindow="156" windowWidth="22692" windowHeight="10188" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>log</t>
   </si>
@@ -52,6 +52,30 @@
   </si>
   <si>
     <t>Description of Record</t>
+  </si>
+  <si>
+    <t>NM-2023-0002</t>
+  </si>
+  <si>
+    <t>N. MANTEUFEL</t>
+  </si>
+  <si>
+    <t>Using the Gervais as a unit of measurement for noise in convitae systems.</t>
+  </si>
+  <si>
+    <t>Noise in convitae systems.</t>
+  </si>
+  <si>
+    <t>Let’s use the Gervais to measure acts of God. Neither of them will appreciate us.</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>Click or tap here to enter text.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -430,7 +454,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
@@ -451,7 +475,7 @@
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -486,7 +510,55 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>45005</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="2">
+        <v>45005</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2">
+        <v>20230320200429</v>
+      </c>
+      <c r="L2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="zFt9eAiWo0BuRyiPVGlrMqk+GKhOP9bkekyvyAm7TXcccsPv/IcDkcYHUrqf8JH65yRzgVgc3eKQQcmGDuQA2g==" saltValue="4vdry6H7RxaQniFrYcfw2Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/00 Attention/data/recorddata.xlsx
+++ b/00 Attention/data/recorddata.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDDD4E02-A2C2-4A9D-A87B-8310672BA119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F61A3F01-0297-40BF-ABF7-090EBA1ADC50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="348" yWindow="156" windowWidth="22692" windowHeight="10188" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,10 +72,10 @@
     <t>/</t>
   </si>
   <si>
-    <t>Click or tap here to enter text.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>https://youtu.be/3M7c7n0Kdws</t>
   </si>
 </sst>
 </file>
@@ -539,26 +539,26 @@
         <v>17</v>
       </c>
       <c r="J2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K2">
         <v>20230320200429</v>
       </c>
       <c r="L2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="zFt9eAiWo0BuRyiPVGlrMqk+GKhOP9bkekyvyAm7TXcccsPv/IcDkcYHUrqf8JH65yRzgVgc3eKQQcmGDuQA2g==" saltValue="4vdry6H7RxaQniFrYcfw2Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="uoicoks9GQJ+sSPRhVCPwlEpd6Yeb6yjDMNqRLIheOiHymqff0ZiOLM6+/D094Jsj0nYVV4kd2bfcMc1MvLL/w==" saltValue="zhR4/8xm33N5GrRCS6Ed8Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/00 Attention/data/recorddata.xlsx
+++ b/00 Attention/data/recorddata.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F61A3F01-0297-40BF-ABF7-090EBA1ADC50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C13EEC-5AC7-4ED9-9562-8F10031EC754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="348" yWindow="156" windowWidth="22692" windowHeight="10188" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="36">
   <si>
     <t>log</t>
   </si>
@@ -76,6 +76,54 @@
   </si>
   <si>
     <t>https://youtu.be/3M7c7n0Kdws</t>
+  </si>
+  <si>
+    <t>Poem: Be A Friend</t>
+  </si>
+  <si>
+    <t>NM-2023-0003</t>
+  </si>
+  <si>
+    <t>Edgar Albert Guest</t>
+  </si>
+  <si>
+    <t>https://youtu.be/Y_yxBC-TCiM</t>
+  </si>
+  <si>
+    <t>Click or tap here to enter text.</t>
+  </si>
+  <si>
+    <t>Poem: The Road Not Taken</t>
+  </si>
+  <si>
+    <t>NM-2023-0004</t>
+  </si>
+  <si>
+    <t>Robert Frost</t>
+  </si>
+  <si>
+    <t>https://youtu.be/gRdYv7g0r0A</t>
+  </si>
+  <si>
+    <t>Life Goes On._x000B_I need to write a poem titled “life goes on” where I use pieces from the note at the end of this video.</t>
+  </si>
+  <si>
+    <t>Poem: Nothing Gold Can Stay</t>
+  </si>
+  <si>
+    <t>NM-2023-0005</t>
+  </si>
+  <si>
+    <t>https://youtu.be/jj7Tm8TtTas</t>
+  </si>
+  <si>
+    <t>Poem: Stopping by Woods on a Snowy Evening</t>
+  </si>
+  <si>
+    <t>NM-2003-0006</t>
+  </si>
+  <si>
+    <t>https://youtu.be/1sWcq2-ZA5o</t>
   </si>
 </sst>
 </file>
@@ -454,7 +502,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
@@ -557,8 +605,196 @@
         <v>18</v>
       </c>
     </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="2">
+        <v>45006</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3">
+        <v>20230321174454</v>
+      </c>
+      <c r="L3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="2">
+        <v>45006</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4">
+        <v>20230321174649</v>
+      </c>
+      <c r="L4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="2">
+        <v>45006</v>
+      </c>
+      <c r="F5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5">
+        <v>20230321175121</v>
+      </c>
+      <c r="L5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N5" t="s">
+        <v>18</v>
+      </c>
+      <c r="O5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="2">
+        <v>45006</v>
+      </c>
+      <c r="F6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6">
+        <v>20230321175248</v>
+      </c>
+      <c r="L6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6" t="s">
+        <v>18</v>
+      </c>
+      <c r="N6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O6" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="uoicoks9GQJ+sSPRhVCPwlEpd6Yeb6yjDMNqRLIheOiHymqff0ZiOLM6+/D094Jsj0nYVV4kd2bfcMc1MvLL/w==" saltValue="zhR4/8xm33N5GrRCS6Ed8Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="uTiZGOAeg4IkPEs8aKqh2CIwSk0hpBqVknHllxxp8aH80z5QFcHBXLxde0v1DG5CtTkP96R3+Mb3nkKwbp2WRw==" saltValue="AH4RdnLuvynJpyLDUr1HCg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/00 Attention/data/recorddata.xlsx
+++ b/00 Attention/data/recorddata.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C13EEC-5AC7-4ED9-9562-8F10031EC754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C83BD33-07FB-4E40-8BB2-BDA8DD3FB817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="348" yWindow="156" windowWidth="22692" windowHeight="10188" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="41">
   <si>
     <t>log</t>
   </si>
@@ -60,15 +60,9 @@
     <t>N. MANTEUFEL</t>
   </si>
   <si>
-    <t>Using the Gervais as a unit of measurement for noise in convitae systems.</t>
-  </si>
-  <si>
     <t>Noise in convitae systems.</t>
   </si>
   <si>
-    <t>Let’s use the Gervais to measure acts of God. Neither of them will appreciate us.</t>
-  </si>
-  <si>
     <t>/</t>
   </si>
   <si>
@@ -124,6 +118,27 @@
   </si>
   <si>
     <t>https://youtu.be/1sWcq2-ZA5o</t>
+  </si>
+  <si>
+    <t>Poem: The Proof of Worth</t>
+  </si>
+  <si>
+    <t>NM-2023-0007</t>
+  </si>
+  <si>
+    <t>https://youtu.be/dFOr5I72Fn0</t>
+  </si>
+  <si>
+    <t>It is interesting how Guest was writing poems for various identies._x000B_Or at least, identities that are significantly different._x000B__x000B_I’d like to capture this in a poem observing things about random shit._x000B_Maybe mention Guest.</t>
+  </si>
+  <si>
+    <t>Paper: Noise in Convitae Systems</t>
+  </si>
+  <si>
+    <t>Using the Gervais as a unit of measurement for noise in convitae systems._x000B__x000B_Let’s use the Gervais to measure acts of God. Neither of them will appreciate us.</t>
+  </si>
+  <si>
+    <t>Write a paper titled Noise in Convitae Systems. Or something like that. Collaborate if possible.</t>
   </si>
 </sst>
 </file>
@@ -502,7 +517,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
@@ -562,8 +577,8 @@
       <c r="A2">
         <v>2</v>
       </c>
-      <c r="B2" s="1">
-        <v>45005</v>
+      <c r="B2" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
@@ -575,34 +590,34 @@
         <v>45005</v>
       </c>
       <c r="F2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" t="s">
         <v>15</v>
       </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>17</v>
-      </c>
-      <c r="J2" t="s">
-        <v>19</v>
       </c>
       <c r="K2">
         <v>20230320200429</v>
       </c>
       <c r="L2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -610,46 +625,46 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
         <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
       </c>
       <c r="E3" s="2">
         <v>45006</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K3">
         <v>20230321174454</v>
       </c>
       <c r="L3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -657,46 +672,46 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>25</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>27</v>
       </c>
       <c r="E4" s="2">
         <v>45006</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K4">
         <v>20230321174649</v>
       </c>
       <c r="L4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
@@ -704,46 +719,46 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E5" s="2">
         <v>45006</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K5">
         <v>20230321175121</v>
       </c>
       <c r="L5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
@@ -751,50 +766,97 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E6" s="2">
         <v>45006</v>
       </c>
       <c r="F6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K6">
         <v>20230321175248</v>
       </c>
       <c r="L6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O6" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45006</v>
+      </c>
+      <c r="F7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7">
+        <v>20230321180305</v>
+      </c>
+      <c r="L7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M7" t="s">
+        <v>16</v>
+      </c>
+      <c r="N7" t="s">
+        <v>16</v>
+      </c>
+      <c r="O7" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="uTiZGOAeg4IkPEs8aKqh2CIwSk0hpBqVknHllxxp8aH80z5QFcHBXLxde0v1DG5CtTkP96R3+Mb3nkKwbp2WRw==" saltValue="AH4RdnLuvynJpyLDUr1HCg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="iSvC9zG2ofs8rBy70gvc+/eyejO9kNzdVHgvgVhZTQQtuHj0ahYflLZ++7fT9hJqRfg1z9+1oWd/q1FyFo5OJw==" saltValue="/QdKoUsFSK93hK6eB7+Tww==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/00 Attention/data/recorddata.xlsx
+++ b/00 Attention/data/recorddata.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C83BD33-07FB-4E40-8BB2-BDA8DD3FB817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{793C883A-1C9D-4FB0-BAD6-FE706E2D4F3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="348" yWindow="156" windowWidth="22692" windowHeight="10188" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="42">
   <si>
     <t>log</t>
   </si>
@@ -111,15 +111,6 @@
     <t>https://youtu.be/jj7Tm8TtTas</t>
   </si>
   <si>
-    <t>Poem: Stopping by Woods on a Snowy Evening</t>
-  </si>
-  <si>
-    <t>NM-2003-0006</t>
-  </si>
-  <si>
-    <t>https://youtu.be/1sWcq2-ZA5o</t>
-  </si>
-  <si>
     <t>Poem: The Proof of Worth</t>
   </si>
   <si>
@@ -139,6 +130,18 @@
   </si>
   <si>
     <t>Write a paper titled Noise in Convitae Systems. Or something like that. Collaborate if possible.</t>
+  </si>
+  <si>
+    <t>Reaction Video</t>
+  </si>
+  <si>
+    <t>NM-2023-0008</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Yd6olw-DzPE&amp;t=21s</t>
+  </si>
+  <si>
+    <t>https://youtu.be/pd6HSIKHByc</t>
   </si>
 </sst>
 </file>
@@ -578,7 +581,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
@@ -590,13 +593,13 @@
         <v>45005</v>
       </c>
       <c r="F2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G2" t="s">
         <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I2" t="s">
         <v>15</v>
@@ -772,7 +775,7 @@
         <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6" s="2">
         <v>45006</v>
@@ -781,7 +784,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H6" t="s">
         <v>22</v>
@@ -793,7 +796,7 @@
         <v>22</v>
       </c>
       <c r="K6">
-        <v>20230321175248</v>
+        <v>20230321180305</v>
       </c>
       <c r="L6" t="s">
         <v>16</v>
@@ -813,22 +816,22 @@
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E7" s="2">
-        <v>45006</v>
+        <v>45011</v>
       </c>
       <c r="F7" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H7" t="s">
         <v>22</v>
@@ -840,7 +843,7 @@
         <v>22</v>
       </c>
       <c r="K7">
-        <v>20230321180305</v>
+        <v>20230326144150</v>
       </c>
       <c r="L7" t="s">
         <v>16</v>
@@ -856,7 +859,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="iSvC9zG2ofs8rBy70gvc+/eyejO9kNzdVHgvgVhZTQQtuHj0ahYflLZ++7fT9hJqRfg1z9+1oWd/q1FyFo5OJw==" saltValue="/QdKoUsFSK93hK6eB7+Tww==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="R0VibOuNX14hXoBM8ZV/QfS9K3HKmu4ckh366SJ5I0DTBjptEb2PhhPAR77Zk7Xe5NXuvfPd3k5K4nrpL1SmBw==" saltValue="7PZkzUQ/kOy+XHeQPx2ocg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/00 Attention/data/recorddata.xlsx
+++ b/00 Attention/data/recorddata.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{793C883A-1C9D-4FB0-BAD6-FE706E2D4F3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F14D90-051E-4F08-95D8-703F961260A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="348" yWindow="156" windowWidth="22692" windowHeight="10188" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="49">
   <si>
     <t>log</t>
   </si>
@@ -142,6 +142,27 @@
   </si>
   <si>
     <t>https://youtu.be/pd6HSIKHByc</t>
+  </si>
+  <si>
+    <t>Phineas Gage</t>
+  </si>
+  <si>
+    <t>NM-2023-0009</t>
+  </si>
+  <si>
+    <t>https://youtu.be/uGOgRaN2MTM</t>
+  </si>
+  <si>
+    <t>Phineas Gage is probably more likely a misunderstood victim of workplace harassment than a valid datapoint for neuroscience. Even the claims that “no” motor, speech or memory function was lost seems too exceptional to be reliable.</t>
+  </si>
+  <si>
+    <t>Steven Wolfram</t>
+  </si>
+  <si>
+    <t>NM-2023-0010</t>
+  </si>
+  <si>
+    <t>https://youtu.be/x-aJ7knCf-4</t>
   </si>
 </sst>
 </file>
@@ -520,7 +541,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
@@ -858,8 +879,102 @@
         <v>16</v>
       </c>
     </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="2">
+        <v>45012</v>
+      </c>
+      <c r="F8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8">
+        <v>20230327221536</v>
+      </c>
+      <c r="L8" t="s">
+        <v>16</v>
+      </c>
+      <c r="M8" t="s">
+        <v>16</v>
+      </c>
+      <c r="N8" t="s">
+        <v>16</v>
+      </c>
+      <c r="O8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="2">
+        <v>45013</v>
+      </c>
+      <c r="F9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9">
+        <v>20230328202347</v>
+      </c>
+      <c r="L9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M9" t="s">
+        <v>16</v>
+      </c>
+      <c r="N9" t="s">
+        <v>16</v>
+      </c>
+      <c r="O9" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="R0VibOuNX14hXoBM8ZV/QfS9K3HKmu4ckh366SJ5I0DTBjptEb2PhhPAR77Zk7Xe5NXuvfPd3k5K4nrpL1SmBw==" saltValue="7PZkzUQ/kOy+XHeQPx2ocg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Q7aLNijHG6178GBntcJ496n5y8WQrRHFND0fe6+donHO6NMIxHX0EQon84iOk11uyfKys1PP/KHa3CFuhGwrFQ==" saltValue="kgQ5+wXxzKTTLSaogC/QeQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/00 Attention/data/recorddata.xlsx
+++ b/00 Attention/data/recorddata.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F14D90-051E-4F08-95D8-703F961260A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F20F39-0C6F-4E50-9B83-1BEEDBBD44A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="348" yWindow="156" windowWidth="22692" windowHeight="10188" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="52">
   <si>
     <t>log</t>
   </si>
@@ -163,6 +163,15 @@
   </si>
   <si>
     <t>https://youtu.be/x-aJ7knCf-4</t>
+  </si>
+  <si>
+    <t>Review of Neuroscience Lecture</t>
+  </si>
+  <si>
+    <t>NM-2023-0011</t>
+  </si>
+  <si>
+    <t>https://youtu.be/q-geygV_u7g</t>
   </si>
 </sst>
 </file>
@@ -541,7 +550,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
@@ -973,8 +982,55 @@
         <v>16</v>
       </c>
     </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="2">
+        <v>45013</v>
+      </c>
+      <c r="F10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10">
+        <v>20230328230531</v>
+      </c>
+      <c r="L10" t="s">
+        <v>16</v>
+      </c>
+      <c r="M10" t="s">
+        <v>16</v>
+      </c>
+      <c r="N10" t="s">
+        <v>16</v>
+      </c>
+      <c r="O10" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Q7aLNijHG6178GBntcJ496n5y8WQrRHFND0fe6+donHO6NMIxHX0EQon84iOk11uyfKys1PP/KHa3CFuhGwrFQ==" saltValue="kgQ5+wXxzKTTLSaogC/QeQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="cfXLh0upb91kfgsMoL4xC9SToGwpyw+ebj70Me6Lpb/hIMTOpWuHMH0eQ4CMnnT5fhAEBYJrgthYSK2FntYxIg==" saltValue="TTGVXW/8mdRLObBI7Z3a0Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/00 Attention/data/recorddata.xlsx
+++ b/00 Attention/data/recorddata.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F20F39-0C6F-4E50-9B83-1BEEDBBD44A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03BACB34-6A08-4E4A-B716-0444F9DD6E63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="348" yWindow="156" windowWidth="22692" windowHeight="10188" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="55">
   <si>
     <t>log</t>
   </si>
@@ -172,6 +172,15 @@
   </si>
   <si>
     <t>https://youtu.be/q-geygV_u7g</t>
+  </si>
+  <si>
+    <t>Poem: I</t>
+  </si>
+  <si>
+    <t>NM-2023-0012</t>
+  </si>
+  <si>
+    <t>The secrets I have will die when I die._x000B_The myths about me will die when I am forgotten._x000B_But I._x000B_I will exist on the last thinking machine.</t>
   </si>
 </sst>
 </file>
@@ -550,7 +559,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
@@ -1029,8 +1038,55 @@
         <v>16</v>
       </c>
     </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="2">
+        <v>45023</v>
+      </c>
+      <c r="F11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11">
+        <v>20230407163247</v>
+      </c>
+      <c r="L11" t="s">
+        <v>16</v>
+      </c>
+      <c r="M11" t="s">
+        <v>16</v>
+      </c>
+      <c r="N11" t="s">
+        <v>16</v>
+      </c>
+      <c r="O11" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="cfXLh0upb91kfgsMoL4xC9SToGwpyw+ebj70Me6Lpb/hIMTOpWuHMH0eQ4CMnnT5fhAEBYJrgthYSK2FntYxIg==" saltValue="TTGVXW/8mdRLObBI7Z3a0Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ig5LeiDG9CZzVQ3KKcF2U1R4hEiiSMFdhIhADEYsoeO5Zcp9qqBdTLbiGso9FdRuuiP1YWqwr6j4bwtxMAK4pA==" saltValue="Yb8N6eGiMcW/M2JlVUy/Fw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
